--- a/documents/Published/Text Wrapper/TextWrapperByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Text Wrapper/TextWrapperByMAQSoftwareChecklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-kajoll.FAREAST\Desktop\text wrapper smaan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitLab_PowerBIVisuals\documents\Published\Text Wrapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7444EF-FB29-4F7C-A246-59557C87907B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" xr2:uid="{CFA628E8-139E-4A70-BE7A-AA996D28E374}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8640" xr2:uid="{CFA628E8-139E-4A70-BE7A-AA996D28E374}"/>
   </bookViews>
   <sheets>
     <sheet name="BVTs" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>S no</t>
   </si>
@@ -191,63 +192,113 @@
     <t>Text settings</t>
   </si>
   <si>
-    <t>Update text color, text size and text to append</t>
+    <t>Display text string</t>
+  </si>
+  <si>
+    <t>Check out for numeric value</t>
+  </si>
+  <si>
+    <t>Check output for text value</t>
+  </si>
+  <si>
+    <t>Numeric value should be displayed</t>
+  </si>
+  <si>
+    <t>1. Drag 'Values' column from 'Measure data' table into 'Field' field</t>
+  </si>
+  <si>
+    <t>What is your salary range?' text should be displayed in the visual</t>
+  </si>
+  <si>
+    <t>1. Drag 'Column1' column from 'Column data' table into 'Field' field of text wrapper visual
+2. Select slicer visual from 'Visualizations' pane. Drag 'Column1' column from 'Column data' table into 'Field' field
+3. Click on 'What is your salary range?' checkbox</t>
+  </si>
+  <si>
+    <t>1. Drag 'Column1' column from 'Column data' table into 'Field' field of text wrapper visual
+2. Select slicer visual from 'Visualizations' pane. Drag 'Column1' column from 'Column data' table into 'Field' field</t>
+  </si>
+  <si>
+    <t>1. Drag 'Column1' column from 'Column data' table into 'Field' field of text wrapper visual
+2. Select slicer visual from 'Visualizations' pane. Drag 'Column1' column from 'Column data' table into 'Field' field
+3. Click on 'What is your salary range?' checkbox and 'What is your job title' checkbox</t>
+  </si>
+  <si>
+    <t>Display error message part 1</t>
+  </si>
+  <si>
+    <t>Display error message part 2</t>
+  </si>
+  <si>
+    <t>"Query returned more than one row, please filter data to return one row" text should be displayed in the visual</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Static Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Features for static text </t>
+  </si>
+  <si>
+    <t>Dynamic Text</t>
+  </si>
+  <si>
+    <t>User will drag the column to the Field</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>toggle option is there</t>
+  </si>
+  <si>
+    <t>Colon appears with the appearance of static text and then you can remove the colon with the toggle button</t>
+  </si>
+  <si>
+    <t>1. Bold, Italics and Underline are by default off.
+2. Segoe UI Semibold is the default font family.
+3. Text highlighter default value is set to white.</t>
+  </si>
+  <si>
+    <t>Update text color, text size</t>
+  </si>
+  <si>
+    <t>1. Bold, Italics and Underline are by default off.
+2. Colon will be set to 'off' by default. Segoe UI Semibold is the default font family.
+3. Text Position will be set to suffix by default. Text highlighter default value is set to white. Add any text to "Text to append" field say 'Hello world', the text 'Hello world' will be appended as suffix with a colon by default.</t>
   </si>
   <si>
     <t>1. Go to formatting pane
 2. Go to 'Text settings' option
 3. Update color to 'blue' 
-4. Update text size to '25'
-5. Update text to append to 'Hello world'</t>
-  </si>
-  <si>
-    <t>Display text string</t>
-  </si>
-  <si>
-    <t>Check out for numeric value</t>
-  </si>
-  <si>
-    <t>Check output for text value</t>
-  </si>
-  <si>
-    <t>Numeric value should be displayed</t>
-  </si>
-  <si>
-    <t>1. Drag 'Values' column from 'Measure data' table into 'Field' field</t>
-  </si>
-  <si>
-    <t>What is your salary range?' text should be displayed in the visual</t>
-  </si>
-  <si>
-    <t>1. Drag 'Column1' column from 'Column data' table into 'Field' field of text wrapper visual
-2. Select slicer visual from 'Visualizations' pane. Drag 'Column1' column from 'Column data' table into 'Field' field
-3. Click on 'What is your salary range?' checkbox</t>
-  </si>
-  <si>
-    <t>1. Drag 'Column1' column from 'Column data' table into 'Field' field of text wrapper visual
-2. Select slicer visual from 'Visualizations' pane. Drag 'Column1' column from 'Column data' table into 'Field' field</t>
-  </si>
-  <si>
-    <t>1. Drag 'Column1' column from 'Column data' table into 'Field' field of text wrapper visual
-2. Select slicer visual from 'Visualizations' pane. Drag 'Column1' column from 'Column data' table into 'Field' field
-3. Click on 'What is your salary range?' checkbox and 'What is your job title' checkbox</t>
-  </si>
-  <si>
-    <t>Display error message part 1</t>
-  </si>
-  <si>
-    <t>Display error message part 2</t>
-  </si>
-  <si>
-    <t>"Query returned more than one row, please filter data to return one row" text should be displayed in the visual</t>
-  </si>
-  <si>
-    <t>NA</t>
+4. Update text size to '25'</t>
   </si>
   <si>
     <t>1. Text color will be set to 'blue'
-2. Text size will be set to 25 pt.
-3. 'Hello world' text will be appended to text string</t>
+2. Text size will be set to 25 pt.</t>
+  </si>
+  <si>
+    <t>1. Go to formattig pane
+2. Go to 'Static Text Settigs' option
+3. Check Font style
+4. Check Font family
+5. Check Text Highlighter
+6. Check Colon
+7. Check Position of the static text(Text Position)- suffix or prefix</t>
+  </si>
+  <si>
+    <t>1. Go to Formatting pane
+2. Go to 'Dynamic Text Settings' option
+3.Check Font style 
+4. Check Font Family
+5. Check Text Highlighter</t>
+  </si>
+  <si>
+    <t>1. Go to formattig pane
+2. Go to 'Static Text Settigs' option
+3. Switch toggle of 'Show Colon' to 'Off'</t>
   </si>
 </sst>
 </file>
@@ -737,7 +788,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,58 +821,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -829,24 +880,65 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
@@ -882,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BDF48F-142E-4DA3-AA46-5DE95B2DDBCD}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1042,7 +1134,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1159,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
